--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/115.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/115.xlsx
@@ -479,13 +479,13 @@
         <v>-15.02750284659057</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.76109966162905</v>
+        <v>-13.75821935500387</v>
       </c>
       <c r="F2" t="n">
-        <v>4.056542583246997</v>
+        <v>4.067592486845413</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.56040811025556</v>
+        <v>-9.598310326982357</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.94995757076867</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.34721587524745</v>
+        <v>-14.34542222975813</v>
       </c>
       <c r="F3" t="n">
-        <v>4.272356103290009</v>
+        <v>4.283248899254325</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.229120479148524</v>
+        <v>-9.266132419282084</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.80937908235349</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.96772556843105</v>
+        <v>-14.967647014614</v>
       </c>
       <c r="F4" t="n">
-        <v>4.329909866582237</v>
+        <v>4.342792692578495</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.195460168542446</v>
+        <v>-9.233427846783451</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.60136885705784</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.57857314211747</v>
+        <v>-15.57584994312639</v>
       </c>
       <c r="F5" t="n">
-        <v>4.322813838442021</v>
+        <v>4.333837557434754</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.852808418568792</v>
+        <v>-8.891037942866632</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.34813626217706</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.24586163335456</v>
+        <v>-16.2417637425651</v>
       </c>
       <c r="F6" t="n">
-        <v>4.308752705190007</v>
+        <v>4.319985901028208</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.446750645932658</v>
+        <v>-8.484260093574203</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.07185272325981</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.78478009522853</v>
+        <v>-16.78331375731026</v>
       </c>
       <c r="F7" t="n">
-        <v>4.541821880378415</v>
+        <v>4.551824399749494</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.416546703276795</v>
+        <v>-8.451817367132406</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.77153055511329</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.77471529769712</v>
+        <v>-17.77580195883299</v>
       </c>
       <c r="F8" t="n">
-        <v>4.694373393090207</v>
+        <v>4.705816065773876</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.611893770624311</v>
+        <v>-7.644925650693986</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.46888152079031</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.40273997271188</v>
+        <v>-18.40457289510972</v>
       </c>
       <c r="F9" t="n">
-        <v>4.673582816177546</v>
+        <v>4.682511766715603</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.204382752372746</v>
+        <v>-7.235503156227529</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.15056454125361</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.14423563645588</v>
+        <v>-19.14549249752868</v>
       </c>
       <c r="F10" t="n">
-        <v>4.813356241315813</v>
+        <v>4.821787684345885</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.375391228737493</v>
+        <v>-6.398970466155442</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.82262156741215</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.02104025006911</v>
+        <v>-20.01776717435868</v>
       </c>
       <c r="F11" t="n">
-        <v>4.991385375357605</v>
+        <v>5.000209587472928</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.117459770452648</v>
+        <v>-6.146996005663582</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.48194861285118</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.96282196268584</v>
+        <v>-20.96402645454728</v>
       </c>
       <c r="F12" t="n">
-        <v>5.347548381863921</v>
+        <v>5.352575826155143</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.508576042192494</v>
+        <v>-5.532299294941701</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.11925004502331</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.63013663852862</v>
+        <v>-21.63318714509074</v>
       </c>
       <c r="F13" t="n">
-        <v>5.480382886496074</v>
+        <v>5.486038761323699</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.079122324378195</v>
+        <v>-5.100934100912511</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.75335339478493</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.44184632241279</v>
+        <v>-22.44421602922714</v>
       </c>
       <c r="F14" t="n">
-        <v>5.765271396332032</v>
+        <v>5.773440993305269</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.149595007221328</v>
+        <v>-4.164467863249529</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.37760136818975</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.43449163156962</v>
+        <v>-23.44122107523026</v>
       </c>
       <c r="F15" t="n">
-        <v>5.972313073471089</v>
+        <v>5.978204609749866</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.724095164865231</v>
+        <v>-3.736441206444978</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.01362418118594</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.1004578002197</v>
+        <v>-24.10608749044164</v>
       </c>
       <c r="F16" t="n">
-        <v>6.26594724160532</v>
+        <v>6.272414839209134</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.500675016871175</v>
+        <v>-3.515704980533477</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.66257916052007</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.98137339692524</v>
+        <v>-24.98684597951308</v>
       </c>
       <c r="F17" t="n">
-        <v>6.61917757227509</v>
+        <v>6.627242430825594</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.386667243725424</v>
+        <v>-3.400283238680819</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.3308102303078</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.72169075341348</v>
+        <v>-25.72810598180592</v>
       </c>
       <c r="F18" t="n">
-        <v>6.487442821081642</v>
+        <v>6.496947832944736</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.003678108696412</v>
+        <v>-3.018904456901339</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.02710380655373</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.35923353259417</v>
+        <v>-26.36648666836849</v>
       </c>
       <c r="F19" t="n">
-        <v>6.607525422745954</v>
+        <v>6.617266096060198</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.623647834109629</v>
+        <v>-2.634409707045528</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.738211915146511</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.86958458966749</v>
+        <v>-26.8763009410253</v>
       </c>
       <c r="F20" t="n">
-        <v>6.825486080455009</v>
+        <v>6.833131985314577</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.376164033492481</v>
+        <v>-2.385996352926618</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.470965440018441</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.22675570349262</v>
+        <v>-27.23159985554406</v>
       </c>
       <c r="F21" t="n">
-        <v>6.783931111235371</v>
+        <v>6.793802707578032</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.174712769666842</v>
+        <v>-2.181573136355907</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.207300132214797</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.73421336163793</v>
+        <v>-27.74301138914756</v>
       </c>
       <c r="F22" t="n">
-        <v>6.818625713765945</v>
+        <v>6.830513524746232</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.201892390366265</v>
+        <v>-2.207666095919467</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.943858264018248</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.9559446025654</v>
+        <v>-27.96450696862389</v>
       </c>
       <c r="F23" t="n">
-        <v>6.849575917683786</v>
+        <v>6.857640776234288</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.267550289117522</v>
+        <v>-2.274070255932701</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.674238693679991</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.37008032605488</v>
+        <v>-28.3787474305361</v>
       </c>
       <c r="F24" t="n">
-        <v>7.054627564790899</v>
+        <v>7.064813376401762</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.581124034479703</v>
+        <v>-2.587892755048876</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.38559712203562</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.26895537890539</v>
+        <v>-28.27835565234574</v>
       </c>
       <c r="F25" t="n">
-        <v>7.02983074320867</v>
+        <v>7.038654955323993</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.47248410549906</v>
+        <v>-2.478676764743196</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.086268731000422</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.74818603212393</v>
+        <v>-28.75454889130501</v>
       </c>
       <c r="F26" t="n">
-        <v>7.036822032926151</v>
+        <v>7.046274675577878</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.556170105263373</v>
+        <v>-2.562690072078553</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.765639809653159</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.60898866831069</v>
+        <v>-28.61442197399001</v>
       </c>
       <c r="F27" t="n">
-        <v>7.213384829049669</v>
+        <v>7.222366148799093</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.638154105658262</v>
+        <v>-2.643626688246103</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.43460925524206</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.85312083940036</v>
+        <v>-28.86011212911784</v>
       </c>
       <c r="F28" t="n">
-        <v>7.022499053617303</v>
+        <v>7.029935481631404</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.804125228782823</v>
+        <v>-2.805329720644262</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.095299076551124</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.18761608470362</v>
+        <v>-29.19536672798592</v>
       </c>
       <c r="F29" t="n">
-        <v>7.074082726813704</v>
+        <v>7.085787245554207</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.90634992937102</v>
+        <v>-2.911325004450876</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.757771603717448</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.88831294943892</v>
+        <v>-28.89352368596993</v>
       </c>
       <c r="F30" t="n">
-        <v>6.917132200347092</v>
+        <v>6.92697761208407</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.895640425646488</v>
+        <v>-2.897355517318755</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.440944619332253</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.8053470263309</v>
+        <v>-28.81249542368248</v>
       </c>
       <c r="F31" t="n">
-        <v>6.866098403870044</v>
+        <v>6.874739323745583</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.810069134272967</v>
+        <v>-2.809047934651312</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.151112591642494</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.68495020939839</v>
+        <v>-28.69080246876864</v>
       </c>
       <c r="F32" t="n">
-        <v>6.964133567548888</v>
+        <v>6.974450302188169</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.317579161629636</v>
+        <v>-3.318102853743305</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.911273525690646</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.57888946407757</v>
+        <v>-28.58400855448868</v>
       </c>
       <c r="F33" t="n">
-        <v>7.181701456172692</v>
+        <v>7.19306557503931</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.623218971469731</v>
+        <v>-3.623402263709515</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.724239114401562</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.18022884254701</v>
+        <v>-28.18632985567125</v>
       </c>
       <c r="F34" t="n">
-        <v>7.151170205945787</v>
+        <v>7.164864754718232</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.824735696809579</v>
+        <v>-3.826005650185226</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.600497236164871</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.07149726744647</v>
+        <v>-28.07594865041266</v>
       </c>
       <c r="F35" t="n">
-        <v>7.100424440131257</v>
+        <v>7.112469358745645</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.077168387900899</v>
+        <v>-4.079655925440827</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.540113081779012</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.7661454882689</v>
+        <v>-27.77003390221289</v>
       </c>
       <c r="F36" t="n">
-        <v>7.271436099849883</v>
+        <v>7.282171788180098</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.284105326617222</v>
+        <v>-4.286841617911142</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.5321762867615</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.32314123701341</v>
+        <v>-27.32765808149381</v>
       </c>
       <c r="F37" t="n">
-        <v>6.985683498026369</v>
+        <v>6.996314447933851</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.680762825812996</v>
+        <v>-4.685253485687708</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.575656295200415</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.12589260239996</v>
+        <v>-27.12951917028713</v>
       </c>
       <c r="F38" t="n">
-        <v>7.357112129646138</v>
+        <v>7.369392709711677</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.695426204995729</v>
+        <v>-4.69952409578519</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.651103731336844</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.80646659766753</v>
+        <v>-26.81035501161153</v>
       </c>
       <c r="F39" t="n">
-        <v>7.26140739587312</v>
+        <v>7.272535853288588</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.862065035565219</v>
+        <v>-4.868231510203672</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.754903825400889</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.43865144163208</v>
+        <v>-26.44192451734251</v>
       </c>
       <c r="F40" t="n">
-        <v>7.369418894317361</v>
+        <v>7.38033787488736</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.941221098546294</v>
+        <v>-4.945685573815323</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.872477888187059</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.14480779665238</v>
+        <v>-26.14746553412925</v>
       </c>
       <c r="F41" t="n">
-        <v>7.477011439070665</v>
+        <v>7.487747127400881</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.314299360324121</v>
+        <v>-5.319850496729012</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.997092867690045</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.44249739531367</v>
+        <v>-25.44468380988824</v>
       </c>
       <c r="F42" t="n">
-        <v>7.44496148171412</v>
+        <v>7.455330585564767</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.390640578194225</v>
+        <v>-5.396086976176383</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.126614778288288</v>
       </c>
       <c r="E43" t="n">
-        <v>-24.95140511572053</v>
+        <v>-24.95181097710862</v>
       </c>
       <c r="F43" t="n">
-        <v>7.38405608889441</v>
+        <v>7.397488791610021</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.421630059020591</v>
+        <v>-5.425636303690159</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.250837034611406</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.65866122417953</v>
+        <v>-24.6602846697319</v>
       </c>
       <c r="F44" t="n">
-        <v>7.597408256003178</v>
+        <v>7.610422005027854</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.464638273855661</v>
+        <v>-5.466746134613179</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.374762175351479</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.11917979328337</v>
+        <v>-24.12075086962437</v>
       </c>
       <c r="F45" t="n">
-        <v>7.526578897629441</v>
+        <v>7.539199877568865</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.513132163581414</v>
+        <v>-5.518945146043141</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.4893270966981</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.73772245768684</v>
+        <v>-23.73921498021079</v>
       </c>
       <c r="F46" t="n">
-        <v>7.417231984295344</v>
+        <v>7.430900348462107</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.422101381922893</v>
+        <v>-5.427037180094223</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.59999882797468</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.2641738639016</v>
+        <v>-23.26778733948592</v>
       </c>
       <c r="F47" t="n">
-        <v>7.597172594552028</v>
+        <v>7.610343451210804</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.554595486681161</v>
+        <v>-5.558667192864937</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.706911557234688</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.5297349513893</v>
+        <v>-22.53433034968674</v>
       </c>
       <c r="F48" t="n">
-        <v>7.603142684647854</v>
+        <v>7.615685110770228</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.817973342948164</v>
+        <v>-5.820421603579566</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.808356117442407</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.22626846382093</v>
+        <v>-22.2301176008564</v>
       </c>
       <c r="F49" t="n">
-        <v>7.661743832167421</v>
+        <v>7.674390996712527</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.682585839261875</v>
+        <v>-5.681682470365796</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.913324072311778</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.74627845703757</v>
+        <v>-21.7480459179212</v>
       </c>
       <c r="F50" t="n">
-        <v>7.580414446914618</v>
+        <v>7.593794780418862</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.723617116367844</v>
+        <v>-5.725541684885578</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.016255924363306</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.19345596954568</v>
+        <v>-21.1961922608396</v>
       </c>
       <c r="F51" t="n">
-        <v>7.663602939170945</v>
+        <v>7.675333642517132</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.842508318473558</v>
+        <v>-5.845179148253271</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.126831014641484</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.85357978777447</v>
+        <v>-20.85749438632415</v>
       </c>
       <c r="F52" t="n">
-        <v>7.406522480570812</v>
+        <v>7.418593583790884</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.967539810612043</v>
+        <v>-5.97214830121233</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.240779244837841</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.12686533393878</v>
+        <v>-20.1288160870622</v>
       </c>
       <c r="F53" t="n">
-        <v>7.568945589625266</v>
+        <v>7.579995493223683</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.013650901220601</v>
+        <v>-6.019162760716968</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.3576160274818</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.21146461154814</v>
+        <v>-19.21685864031893</v>
       </c>
       <c r="F54" t="n">
-        <v>7.478294484749155</v>
+        <v>7.49191047970455</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.055297516560133</v>
+        <v>-6.058518223059197</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.476333353406972</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.82298980162845</v>
+        <v>-18.8276506614401</v>
       </c>
       <c r="F55" t="n">
-        <v>7.444830558685703</v>
+        <v>7.456744554271673</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.492973200559035</v>
+        <v>-6.495067969013711</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.583572353636328</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.69225006545097</v>
+        <v>-18.69780120185586</v>
       </c>
       <c r="F56" t="n">
-        <v>7.185576777813843</v>
+        <v>7.19822394235895</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.39811946647073</v>
+        <v>-6.396024698016054</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.684907724600647</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.39158533069073</v>
+        <v>-18.39849806659116</v>
       </c>
       <c r="F57" t="n">
-        <v>7.19738603497708</v>
+        <v>7.209614245831252</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.302074332823827</v>
+        <v>-6.304352393518287</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.775388316469434</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.8161262515855</v>
+        <v>-17.82279023373194</v>
       </c>
       <c r="F58" t="n">
-        <v>6.954078678966443</v>
+        <v>6.966856766539967</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.470965039482094</v>
+        <v>-6.473544223141913</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.865867565523743</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.2945812755825</v>
+        <v>-17.30318291854952</v>
       </c>
       <c r="F59" t="n">
-        <v>7.007521459166369</v>
+        <v>7.01951400856939</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.579552599251369</v>
+        <v>-6.580599983478708</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.957307961968793</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.0330232494105</v>
+        <v>-17.04043349281892</v>
       </c>
       <c r="F60" t="n">
-        <v>7.142450732253198</v>
+        <v>7.157454511309815</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.934563483107613</v>
+        <v>-6.93999678878693</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.040414942882439</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.66592817003134</v>
+        <v>-16.67744939653206</v>
       </c>
       <c r="F61" t="n">
-        <v>6.938053700288171</v>
+        <v>6.950020065085508</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.746165245215176</v>
+        <v>-6.750053659159168</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.115255135242924</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.27030496276006</v>
+        <v>-16.28121085102722</v>
       </c>
       <c r="F62" t="n">
-        <v>6.936953946849465</v>
+        <v>6.950412834170759</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.741884062185931</v>
+        <v>-6.745039307170787</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.166067913069625</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.77036228644591</v>
+        <v>-15.77781180676285</v>
       </c>
       <c r="F63" t="n">
-        <v>6.838944967776304</v>
+        <v>6.852299116674865</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.744895291839528</v>
+        <v>-6.749346674805714</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.195444795138657</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.55894778015772</v>
+        <v>-15.56918596097995</v>
       </c>
       <c r="F64" t="n">
-        <v>6.648137746160988</v>
+        <v>6.662015587173218</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.493928938666481</v>
+        <v>-6.500501274693027</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.197148570038173</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.32077260686104</v>
+        <v>-15.33056564938665</v>
       </c>
       <c r="F65" t="n">
-        <v>6.614411974040702</v>
+        <v>6.626797292528974</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.584750243479535</v>
+        <v>-6.58866484202921</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.169702165949987</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.93051724375487</v>
+        <v>-14.93989133258954</v>
       </c>
       <c r="F66" t="n">
-        <v>6.617999265019335</v>
+        <v>6.629913260605306</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.665294090561834</v>
+        <v>-6.669732381225178</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.118860863358517</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.82137980726624</v>
+        <v>-14.83258681849876</v>
       </c>
       <c r="F67" t="n">
-        <v>6.571285928480056</v>
+        <v>6.583802169996746</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.624799597872375</v>
+        <v>-6.627522796863453</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.037778757030331</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.45525355829737</v>
+        <v>-14.46571430826791</v>
       </c>
       <c r="F68" t="n">
-        <v>6.285166742176974</v>
+        <v>6.297211660791363</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.477930144593891</v>
+        <v>-6.481438881755475</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.935788138329274</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.61915609757294</v>
+        <v>-14.63240550804876</v>
       </c>
       <c r="F69" t="n">
-        <v>6.266994625832659</v>
+        <v>6.278280190882227</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.385537763439831</v>
+        <v>-6.387226670506413</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.807651554051389</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.47990636454834</v>
+        <v>-14.49214766770535</v>
       </c>
       <c r="F70" t="n">
-        <v>6.2137613224782</v>
+        <v>6.225937164121006</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.474342853615259</v>
+        <v>-6.478650221250186</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.657922779559238</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.45813386492255</v>
+        <v>-14.47011332202273</v>
       </c>
       <c r="F71" t="n">
-        <v>6.302998458647406</v>
+        <v>6.315540884769779</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.317916019262316</v>
+        <v>-6.32279944822228</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.489473657498221</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.41109322081223</v>
+        <v>-14.42380584687154</v>
       </c>
       <c r="F72" t="n">
-        <v>5.924447614281738</v>
+        <v>5.936806748164328</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.409365754611772</v>
+        <v>-6.415623875370117</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.297839376458716</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.64450279587452</v>
+        <v>-14.65553960717009</v>
       </c>
       <c r="F73" t="n">
-        <v>5.888784181340876</v>
+        <v>5.901824114971236</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.119240323639122</v>
+        <v>-6.12582575196851</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.093013789139102</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.78872760397897</v>
+        <v>-14.80049758423369</v>
       </c>
       <c r="F74" t="n">
-        <v>5.817352577036419</v>
+        <v>5.828873803537138</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.887938609334348</v>
+        <v>-5.89606892939906</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.86967423647094</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.05186979879483</v>
+        <v>-15.06327319456997</v>
       </c>
       <c r="F75" t="n">
-        <v>5.54581821609902</v>
+        <v>5.560062641590818</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.692470527907378</v>
+        <v>-5.700574663366407</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.635326512222841</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.16625724872299</v>
+        <v>-15.17492435320421</v>
       </c>
       <c r="F76" t="n">
-        <v>5.561528979509092</v>
+        <v>5.574228513265566</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.441752928488324</v>
+        <v>-5.449569033284834</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.391341907429976</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.37587810952186</v>
+        <v>-15.38475469084855</v>
       </c>
       <c r="F77" t="n">
-        <v>5.499916602335928</v>
+        <v>5.514030104799309</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.42655276488908</v>
+        <v>-5.434958023313468</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.138057663362952</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.77791654518559</v>
+        <v>-15.78632180360998</v>
       </c>
       <c r="F78" t="n">
-        <v>5.318588207978022</v>
+        <v>5.328669281166151</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.955151308769891</v>
+        <v>-4.963687490222696</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.885813786071619</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.02906619059842</v>
+        <v>-16.03438166555216</v>
       </c>
       <c r="F79" t="n">
-        <v>4.912569712250414</v>
+        <v>4.922362754776024</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.05420767207039</v>
+        <v>-5.06444585289262</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.631501765690905</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.62590500024418</v>
+        <v>-16.63364255122364</v>
       </c>
       <c r="F80" t="n">
-        <v>5.100706104086017</v>
+        <v>5.110027823709326</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.960728629780466</v>
+        <v>-4.967654457983739</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.385297923527783</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.23206552951326</v>
+        <v>-17.23651691247944</v>
       </c>
       <c r="F81" t="n">
-        <v>4.776671608753297</v>
+        <v>4.783296313991211</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.912247832357554</v>
+        <v>-4.922381274757051</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.145810342534244</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.90829606359125</v>
+        <v>-17.90931726321291</v>
       </c>
       <c r="F82" t="n">
-        <v>4.926395184051277</v>
+        <v>4.940691978754441</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.799169612713566</v>
+        <v>-4.807889086406156</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.916552978123848</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.69578498721824</v>
+        <v>-18.69786666337007</v>
       </c>
       <c r="F83" t="n">
-        <v>4.771408503010923</v>
+        <v>4.783034467934375</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.716504812570908</v>
+        <v>-4.725761070680009</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.701558009759028</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.58593065742719</v>
+        <v>-19.58792068745913</v>
       </c>
       <c r="F84" t="n">
-        <v>4.833911156777323</v>
+        <v>4.844254076022287</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.567920267620159</v>
+        <v>-4.576665925918432</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.495590474248964</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.6491696635066</v>
+        <v>-20.64649883372689</v>
       </c>
       <c r="F85" t="n">
-        <v>4.569865593065392</v>
+        <v>4.577302021079492</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.304869718924198</v>
+        <v>-4.313130962017328</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.304215145066435</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.78542444253433</v>
+        <v>-21.78411521225015</v>
       </c>
       <c r="F86" t="n">
-        <v>4.491207037592302</v>
+        <v>4.503121033178273</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.06374877748813</v>
+        <v>-4.072887204871654</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.12049407736275</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.94600472024198</v>
+        <v>-22.94634512011586</v>
       </c>
       <c r="F87" t="n">
-        <v>4.392072120474752</v>
+        <v>4.405138238710794</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.986752944475939</v>
+        <v>-3.9966245408186</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.945539551781267</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.23254604358987</v>
+        <v>-24.23333158176037</v>
       </c>
       <c r="F88" t="n">
-        <v>4.198829730530875</v>
+        <v>4.211215049019148</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.121642940654243</v>
+        <v>-4.130886106460501</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.777137533289127</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.9715180762393</v>
+        <v>-25.97121695327393</v>
       </c>
       <c r="F89" t="n">
-        <v>4.223286152239219</v>
+        <v>4.235435809276342</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.148207223120105</v>
+        <v>-4.159348772838413</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.610985495509154</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.56932889964923</v>
+        <v>-27.56995733018563</v>
       </c>
       <c r="F90" t="n">
-        <v>3.933448751929088</v>
+        <v>3.944786686190023</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.227612039855173</v>
+        <v>-4.236698098027332</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.451477988500578</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.13820573377895</v>
+        <v>-29.13783914929938</v>
       </c>
       <c r="F91" t="n">
-        <v>3.588283279809822</v>
+        <v>3.599071337351404</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.18723537789129</v>
+        <v>-4.193938636946254</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.293628500026801</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.79158029044916</v>
+        <v>-30.78991756798827</v>
       </c>
       <c r="F92" t="n">
-        <v>3.255450756967462</v>
+        <v>3.266369737537461</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.380569413955059</v>
+        <v>-4.387272673010023</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.141770290833259</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.89576211086854</v>
+        <v>-32.89504203421224</v>
       </c>
       <c r="F93" t="n">
-        <v>3.075693438950563</v>
+        <v>3.089283249300275</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.754433213903389</v>
+        <v>-4.760337842485007</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.994196744704494</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.9535971792282</v>
+        <v>-34.95218321052129</v>
       </c>
       <c r="F94" t="n">
-        <v>2.95681532914769</v>
+        <v>2.969671970538265</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.970914441391329</v>
+        <v>-4.977382038995142</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.853184943279532</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.99746276045574</v>
+        <v>-36.99695216064491</v>
       </c>
       <c r="F95" t="n">
-        <v>2.587533835193965</v>
+        <v>2.601464045417561</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.249963784159879</v>
+        <v>-5.253184490658943</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.724463397557062</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.49513374278319</v>
+        <v>-39.49625968082758</v>
       </c>
       <c r="F96" t="n">
-        <v>2.255984358030094</v>
+        <v>2.271328536960596</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.594068779748965</v>
+        <v>-5.594330625805799</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.606316542611782</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.65645037280385</v>
+        <v>-41.66160874012349</v>
       </c>
       <c r="F97" t="n">
-        <v>2.013043586499025</v>
+        <v>2.031294256660391</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.121479107425058</v>
+        <v>-6.119083216005022</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.508017487969977</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.0107606390144</v>
+        <v>-44.01462286835271</v>
       </c>
       <c r="F98" t="n">
-        <v>1.427765280262502</v>
+        <v>1.443528412883941</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.353880575168537</v>
+        <v>-6.352060745073537</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.42457688960972</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.21245393099895</v>
+        <v>-46.21577937592075</v>
       </c>
       <c r="F99" t="n">
-        <v>1.181551433021002</v>
+        <v>1.197576411699275</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.52532428088094</v>
+        <v>-6.523164050912055</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.364779033839712</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.53929654584756</v>
+        <v>-48.54407523638478</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9961120555707941</v>
+        <v>1.013092772356513</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.763355438846362</v>
+        <v>-6.762452069950283</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.318352174133598</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.67361684740858</v>
+        <v>-50.67912870690495</v>
       </c>
       <c r="F101" t="n">
-        <v>0.790314147201702</v>
+        <v>0.806993741022061</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.928894515977146</v>
+        <v>-6.929365838879448</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.298614117433047</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.26199130382351</v>
+        <v>-53.26534293335099</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3361421616222247</v>
+        <v>0.3516827250953536</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.271847388916161</v>
+        <v>-7.271271327591124</v>
       </c>
     </row>
   </sheetData>
